--- a/src/sample/src/ssc_project/CiA402Example.xlsx
+++ b/src/sample/src/ssc_project/CiA402Example.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b20467ae3810cfc8/Studium/Semester/6. Semester/Fachpraktikum/EtherCAT_CiA402/1_Workspace/workspace_selfmade_ssc/1_V2.2/EtherCAT_SSC_CiA402/src/sample/src/ssc_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b20467ae3810cfc8/Studium/Semester/6. Semester/Fachpraktikum/EtherCAT_CiA402/1_Workspace/workspace_selfmade_ssc/1_V2.x/EtherCAT_SSC_CiA402/src/sample/src/ssc_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_BDFEFDA0D73BD2C085FB18E7AF2BC5402792095B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A0833D4-ABA1-41F9-9AD3-B0539014C8CF}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="11_BDFEFDA0D73BD2C085FB18E7AF2BC5402792095B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1632459-524F-48E6-BA5E-4B0DD5F459F3}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27516" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profile!$B$10:$P$118</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Profile!$B$1:$P$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profile!$B$10:$P$120</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Profile!$B$1:$P$121</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="168">
   <si>
     <t>Index</t>
   </si>
@@ -641,6 +641,15 @@
   </si>
   <si>
     <t>Axis 0 objects (0x6000 - 0x67FF)</t>
+  </si>
+  <si>
+    <t>INT64</t>
+  </si>
+  <si>
+    <t>0x607A0040</t>
+  </si>
+  <si>
+    <t>0x60640040</t>
   </si>
 </sst>
 </file>
@@ -1111,11 +1120,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T969"/>
+  <dimension ref="A1:T971"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <pane ySplit="10" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1124,7 +1133,7 @@
     <col min="2" max="2" width="20.33203125" style="16" customWidth="1"/>
     <col min="3" max="5" width="14.6640625" style="16" customWidth="1"/>
     <col min="6" max="6" width="40.6640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7.6640625" style="16" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" style="16" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" style="16" customWidth="1"/>
@@ -1836,7 +1845,7 @@
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -2356,7 +2365,7 @@
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
@@ -2484,7 +2493,7 @@
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
@@ -2497,7 +2506,7 @@
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3363,13 +3372,13 @@
       <c r="C94" s="4"/>
       <c r="D94" s="11"/>
       <c r="E94" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="F94" t="s">
         <v>83</v>
       </c>
-      <c r="G94" t="s">
-        <v>151</v>
+      <c r="G94">
+        <v>0</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
@@ -3509,13 +3518,13 @@
       <c r="C100" s="4"/>
       <c r="D100" s="11"/>
       <c r="E100" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="F100" t="s">
         <v>91</v>
       </c>
-      <c r="G100" t="s">
-        <v>151</v>
+      <c r="G100">
+        <v>0</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
@@ -3953,106 +3962,84 @@
       <c r="O118"/>
       <c r="P118"/>
     </row>
-    <row r="119" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="13"/>
-      <c r="B119" s="14" t="s">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+    </row>
+    <row r="121" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="13"/>
+      <c r="B121" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C121" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
-      <c r="K119" s="14"/>
-      <c r="L119" s="14"/>
-      <c r="M119" s="14"/>
-      <c r="N119" s="14"/>
-      <c r="O119" s="14"/>
-      <c r="P119" s="14"/>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="14"/>
+      <c r="L121" s="14"/>
+      <c r="M121" s="14"/>
+      <c r="N121" s="14"/>
+      <c r="O121" s="14"/>
+      <c r="P121" s="14"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
         <v>40</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C122" t="s">
         <v>95</v>
       </c>
-      <c r="D120"/>
-      <c r="E120"/>
-      <c r="F120" t="s">
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122" t="s">
         <v>136</v>
       </c>
-      <c r="G120"/>
-      <c r="H120"/>
-      <c r="I120"/>
-      <c r="J120" t="s">
-        <v>70</v>
-      </c>
-      <c r="K120"/>
-      <c r="L120"/>
-      <c r="M120"/>
-      <c r="N120"/>
-      <c r="O120" s="4"/>
-      <c r="P120" s="4"/>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121" t="s">
-        <v>66</v>
-      </c>
-      <c r="F121" t="s">
-        <v>137</v>
-      </c>
-      <c r="G121" t="s">
-        <v>141</v>
-      </c>
-      <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121" t="s">
-        <v>70</v>
-      </c>
-      <c r="K121"/>
-      <c r="L121" t="s">
-        <v>77</v>
-      </c>
-      <c r="M121"/>
-      <c r="N121" s="23"/>
-      <c r="O121" s="4"/>
-      <c r="P121" s="4"/>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122">
-        <v>2</v>
-      </c>
-      <c r="E122" t="s">
-        <v>66</v>
-      </c>
-      <c r="F122" t="s">
-        <v>138</v>
-      </c>
-      <c r="G122" t="s">
-        <v>156</v>
-      </c>
+      <c r="G122"/>
       <c r="H122"/>
       <c r="I122"/>
       <c r="J122" t="s">
         <v>70</v>
       </c>
       <c r="K122"/>
-      <c r="L122" t="s">
-        <v>77</v>
-      </c>
+      <c r="L122"/>
       <c r="M122"/>
       <c r="N122"/>
       <c r="O122" s="4"/>
@@ -4061,35 +4048,51 @@
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B123"/>
       <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
-      <c r="G123"/>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>66</v>
+      </c>
+      <c r="F123" t="s">
+        <v>137</v>
+      </c>
+      <c r="G123" t="s">
+        <v>141</v>
+      </c>
       <c r="H123"/>
       <c r="I123"/>
-      <c r="J123"/>
+      <c r="J123" t="s">
+        <v>70</v>
+      </c>
       <c r="K123"/>
-      <c r="L123"/>
+      <c r="L123" t="s">
+        <v>77</v>
+      </c>
       <c r="M123"/>
-      <c r="N123"/>
+      <c r="N123" s="23"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B124" t="s">
-        <v>41</v>
-      </c>
-      <c r="C124" t="s">
-        <v>139</v>
-      </c>
-      <c r="D124"/>
-      <c r="E124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>66</v>
+      </c>
       <c r="F124" t="s">
-        <v>140</v>
-      </c>
-      <c r="G124"/>
+        <v>138</v>
+      </c>
+      <c r="G124" t="s">
+        <v>156</v>
+      </c>
       <c r="H124"/>
       <c r="I124"/>
       <c r="J124" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K124"/>
       <c r="L124" t="s">
@@ -4097,59 +4100,71 @@
       </c>
       <c r="M124"/>
       <c r="N124"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B125"/>
       <c r="C125"/>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125" t="s">
-        <v>93</v>
-      </c>
+      <c r="D125"/>
+      <c r="E125"/>
       <c r="F125"/>
-      <c r="G125" t="s">
-        <v>142</v>
-      </c>
+      <c r="G125"/>
       <c r="H125"/>
       <c r="I125"/>
-      <c r="J125" t="s">
-        <v>68</v>
-      </c>
+      <c r="J125"/>
       <c r="K125"/>
-      <c r="L125" t="s">
-        <v>77</v>
-      </c>
+      <c r="L125"/>
       <c r="M125"/>
       <c r="N125"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B126"/>
-      <c r="C126"/>
+      <c r="B126" t="s">
+        <v>41</v>
+      </c>
+      <c r="C126" t="s">
+        <v>139</v>
+      </c>
       <c r="D126"/>
       <c r="E126"/>
-      <c r="F126"/>
+      <c r="F126" t="s">
+        <v>140</v>
+      </c>
       <c r="G126"/>
       <c r="H126"/>
       <c r="I126"/>
-      <c r="J126"/>
+      <c r="J126" t="s">
+        <v>68</v>
+      </c>
       <c r="K126"/>
-      <c r="L126"/>
+      <c r="L126" t="s">
+        <v>77</v>
+      </c>
       <c r="M126"/>
       <c r="N126"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B127"/>
       <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>93</v>
+      </c>
       <c r="F127"/>
-      <c r="G127"/>
+      <c r="G127" t="s">
+        <v>142</v>
+      </c>
       <c r="H127"/>
       <c r="I127"/>
-      <c r="J127"/>
+      <c r="J127" t="s">
+        <v>68</v>
+      </c>
       <c r="K127"/>
-      <c r="L127"/>
+      <c r="L127" t="s">
+        <v>77</v>
+      </c>
       <c r="M127"/>
       <c r="N127"/>
     </row>
@@ -4259,10 +4274,34 @@
       <c r="N134"/>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C135" s="4"/>
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C136" s="4"/>
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C137" s="4"/>
@@ -6762,6 +6801,12 @@
     </row>
     <row r="969" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C969" s="4"/>
+    </row>
+    <row r="970" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C970" s="4"/>
+    </row>
+    <row r="971" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C971" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
@@ -6770,20 +6815,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:M13 M15:M16 M18:M19 M39:M40 M42:M59 M61:M63 M65:M74 M76:M118 M21:M37" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:M13 M15:M16 M18:M19 M39:M40 M42:M59 M61:M63 M65:M74 M76:M120 M21:M37" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"rx,tx"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Object Code value" error="The Object code value shall be:_x000a_VARIABLE_x000a_RECORD_x000a_ARRAY" sqref="C12:C13 C15:C16 C18:C19 C42:C59 C61:C63 C65:C74 C39:C40 C76:C118 C21:C37" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Object Code value" error="The Object code value shall be:_x000a_VARIABLE_x000a_RECORD_x000a_ARRAY" sqref="C12:C13 C15:C16 C18:C19 C42:C59 C61:C63 C65:C74 C39:C40 C76:C120 C21:C37" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"VARIABLE,ARRAY,RECORD"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="C11 C14 C17 C20 C38 C41 C60 C64 C75 C119 D120:D134" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Category" error="The value for the entry category shall be _x000a_M : (mandatory)_x000a_O : (optional) _x000a_C : (conditional)" sqref="J12:J13 J15:J16 J18:J19 J42:J59 J61:J63 J65:J74 J39:J40 J76:J118 J21:J37" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="C11 C14 C17 C20 C38 C41 C60 C64 C75 C121 D122:D136" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Category" error="The value for the entry category shall be _x000a_M : (mandatory)_x000a_O : (optional) _x000a_C : (conditional)" sqref="J12:J13 J15:J16 J18:J19 J42:J59 J61:J63 J65:J74 J39:J40 J76:J120 J21:J37" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"M,O,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Backup/Setting Flag" error="The entry flag shall be_x000a_B : (Backup)_x000a_S : (Setting)" sqref="K12:K13 K15:K16 K18:K19 K42:K59 K61:K63 K65:K74 K39:K40 K76:K118 K21:K37" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Backup/Setting Flag" error="The entry flag shall be_x000a_B : (Backup)_x000a_S : (Setting)" sqref="K12:K13 K15:K16 K18:K19 K42:K59 K61:K63 K65:K74 K39:K40 K76:K120 K21:K37" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"B,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C135:C969" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C137:C971" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"VARIABLE,ARRAY,RECORD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/sample/src/ssc_project/CiA402Example.xlsx
+++ b/src/sample/src/ssc_project/CiA402Example.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b20467ae3810cfc8/Studium/Semester/6. Semester/Fachpraktikum/EtherCAT_CiA402/1_Workspace/workspace_selfmade_ssc/1_V2.x/EtherCAT_SSC_CiA402/src/sample/src/ssc_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="11_BDFEFDA0D73BD2C085FB18E7AF2BC5402792095B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1632459-524F-48E6-BA5E-4B0DD5F459F3}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="11_BDFEFDA0D73BD2C085FB18E7AF2BC5402792095B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{533B899D-470A-45AF-9A14-3C3F4870CFBB}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27516" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profile!$B$10:$P$120</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Profile!$B$1:$P$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profile!$B$10:$P$116</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Profile!$B$1:$P$117</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="167">
   <si>
     <t>Index</t>
   </si>
@@ -465,9 +465,6 @@
     <t>RxPdoMappingCsv</t>
   </si>
   <si>
-    <t>RxPdoMappingCspCsV</t>
-  </si>
-  <si>
     <t>0x60400010</t>
   </si>
   <si>
@@ -477,9 +474,6 @@
     <t>0x60FF0020</t>
   </si>
   <si>
-    <t>0x60600008</t>
-  </si>
-  <si>
     <t>map control word</t>
   </si>
   <si>
@@ -489,15 +483,9 @@
     <t>map target velocity</t>
   </si>
   <si>
-    <t>map mode of operation</t>
-  </si>
-  <si>
     <t>map target position</t>
   </si>
   <si>
-    <t>TxPdoMappingCspCsV</t>
-  </si>
-  <si>
     <t>TxPdoMappingCsp</t>
   </si>
   <si>
@@ -516,16 +504,10 @@
     <t>map actual velocity</t>
   </si>
   <si>
-    <t>map mode of operation display</t>
-  </si>
-  <si>
     <t>0x60640020</t>
   </si>
   <si>
     <t>0x606C0020</t>
-  </si>
-  <si>
-    <t>0x60610008</t>
   </si>
   <si>
     <t>0x1C12</t>
@@ -583,12 +565,6 @@
     <t>ro , wr_preop</t>
   </si>
   <si>
-    <t>add 24bit padding to get an 32Bit object/process data structure</t>
-  </si>
-  <si>
-    <t>0x00000018</t>
-  </si>
-  <si>
     <t>0x00000010</t>
   </si>
   <si>
@@ -643,13 +619,34 @@
     <t>Axis 0 objects (0x6000 - 0x67FF)</t>
   </si>
   <si>
-    <t>INT64</t>
-  </si>
-  <si>
-    <t>0x607A0040</t>
-  </si>
-  <si>
-    <t>0x60640040</t>
+    <t>0x64640040</t>
+  </si>
+  <si>
+    <t>0x647A0040</t>
+  </si>
+  <si>
+    <t>0x6464</t>
+  </si>
+  <si>
+    <t>LREAL</t>
+  </si>
+  <si>
+    <t>Position actual value Large</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Target position Large</t>
+  </si>
+  <si>
+    <t>0x647A</t>
+  </si>
+  <si>
+    <t>RxPdoMappingCspLarge</t>
+  </si>
+  <si>
+    <t>TxPdoMappingCspLarge</t>
   </si>
 </sst>
 </file>
@@ -1120,11 +1117,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T971"/>
+  <dimension ref="A1:T967"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1604,7 +1601,7 @@
       <c r="D21" s="11"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -1633,7 +1630,7 @@
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -1646,7 +1643,7 @@
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1661,7 +1658,7 @@
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -1674,7 +1671,7 @@
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1689,7 +1686,7 @@
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -1701,55 +1698,43 @@
       <c r="M24" s="4"/>
       <c r="N24"/>
       <c r="O24"/>
-      <c r="P24" t="s">
-        <v>113</v>
-      </c>
+      <c r="P24"/>
     </row>
     <row r="25" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="11">
-        <v>4</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>93</v>
-      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="13" t="s">
-        <v>110</v>
-      </c>
+      <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25"/>
       <c r="O25"/>
-      <c r="P25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="11">
-        <v>5</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13" t="s">
-        <v>146</v>
-      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
         <v>77</v>
@@ -1757,45 +1742,53 @@
       <c r="M26" s="4"/>
       <c r="N26"/>
       <c r="O26"/>
-      <c r="P26" t="s">
-        <v>145</v>
-      </c>
+      <c r="P26"/>
     </row>
     <row r="27" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="13"/>
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="G27" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="L27" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="M27" s="4"/>
       <c r="N27"/>
       <c r="O27"/>
-      <c r="P27"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="P27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="13"/>
+      <c r="D28" s="11">
+        <v>2</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
         <v>77</v>
@@ -1803,21 +1796,23 @@
       <c r="M28" s="4"/>
       <c r="N28"/>
       <c r="O28"/>
-      <c r="P28"/>
+      <c r="P28" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="29" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>93</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -1830,54 +1825,44 @@
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="11">
-        <v>2</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>93</v>
-      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="13" t="s">
-        <v>166</v>
-      </c>
+      <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30"/>
       <c r="O30"/>
-      <c r="P30" t="s">
-        <v>115</v>
-      </c>
+      <c r="P30"/>
     </row>
     <row r="31" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="11">
-        <v>3</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
-        <v>147</v>
-      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="4"/>
+      <c r="J31" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4" t="s">
         <v>77</v>
@@ -1885,45 +1870,53 @@
       <c r="M31" s="4"/>
       <c r="N31"/>
       <c r="O31"/>
-      <c r="P31" t="s">
-        <v>148</v>
-      </c>
+      <c r="P31"/>
     </row>
     <row r="32" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="13"/>
+      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="G32" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="L32" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="M32" s="4"/>
       <c r="N32"/>
       <c r="O32"/>
-      <c r="P32"/>
+      <c r="P32" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="33" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="13"/>
+      <c r="D33" s="11">
+        <v>2</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4" t="s">
         <v>77</v>
@@ -1931,21 +1924,23 @@
       <c r="M33" s="4"/>
       <c r="N33"/>
       <c r="O33"/>
-      <c r="P33"/>
+      <c r="P33" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="34" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>93</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -1958,64 +1953,48 @@
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="11">
-        <v>2</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>93</v>
-      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="13"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="13" t="s">
-        <v>109</v>
-      </c>
+      <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35"/>
       <c r="O35"/>
-      <c r="P35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="11">
-        <v>3</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M36" s="4"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36" t="s">
-        <v>148</v>
-      </c>
+      <c r="P35"/>
+    </row>
+    <row r="36" spans="1:16" s="18" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
     </row>
     <row r="37" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
@@ -2035,103 +2014,117 @@
       <c r="O37"/>
       <c r="P37"/>
     </row>
-    <row r="38" spans="1:16" s="18" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-    </row>
-    <row r="39" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
+    <row r="38" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+    </row>
+    <row r="39" spans="1:16" s="18" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
     </row>
     <row r="40" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C40" s="4"/>
       <c r="D40" s="11"/>
       <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="F40" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
-      <c r="J40" s="4"/>
+      <c r="J40" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
+      <c r="L40" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="M40" s="4"/>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
     </row>
-    <row r="41" spans="1:16" s="18" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
+    <row r="41" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="11">
+        <v>1</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="42" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
-      <c r="B42" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G42" s="13"/>
+      <c r="D42" s="11">
+        <v>2</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13" t="s">
+        <v>119</v>
+      </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4" t="s">
         <v>77</v>
@@ -2139,21 +2132,23 @@
       <c r="M42" s="4"/>
       <c r="N42"/>
       <c r="O42"/>
-      <c r="P42"/>
+      <c r="P42" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="43" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>93</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
@@ -2165,55 +2160,43 @@
       <c r="M43" s="4"/>
       <c r="N43"/>
       <c r="O43"/>
-      <c r="P43" t="s">
-        <v>120</v>
-      </c>
+      <c r="P43"/>
     </row>
     <row r="44" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="11">
-        <v>2</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>93</v>
-      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="13"/>
       <c r="F44" s="13"/>
-      <c r="G44" s="13" t="s">
-        <v>124</v>
-      </c>
+      <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44"/>
       <c r="O44"/>
-      <c r="P44" t="s">
-        <v>121</v>
-      </c>
+      <c r="P44"/>
     </row>
     <row r="45" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="11">
-        <v>3</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13" t="s">
-        <v>125</v>
-      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="4"/>
+      <c r="J45" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
         <v>77</v>
@@ -2221,23 +2204,21 @@
       <c r="M45" s="4"/>
       <c r="N45"/>
       <c r="O45"/>
-      <c r="P45" t="s">
-        <v>122</v>
-      </c>
+      <c r="P45"/>
     </row>
     <row r="46" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>93</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
@@ -2250,7 +2231,7 @@
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2258,14 +2239,14 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>93</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
@@ -2278,48 +2259,50 @@
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="13"/>
+      <c r="D48" s="11">
+        <v>3</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
+      <c r="G48" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
+      <c r="L48" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="M48" s="4"/>
       <c r="N48"/>
       <c r="O48"/>
-      <c r="P48"/>
+      <c r="P48" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="49" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="11"/>
       <c r="E49" s="13"/>
-      <c r="F49" s="13" t="s">
-        <v>117</v>
-      </c>
+      <c r="F49" s="13"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49"/>
       <c r="O49"/>
@@ -2327,21 +2310,21 @@
     </row>
     <row r="50" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="11">
-        <v>1</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13" t="s">
-        <v>119</v>
-      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="4"/>
+      <c r="J50" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4" t="s">
         <v>77</v>
@@ -2349,23 +2332,21 @@
       <c r="M50" s="4"/>
       <c r="N50"/>
       <c r="O50"/>
-      <c r="P50" t="s">
-        <v>120</v>
-      </c>
+      <c r="P50"/>
     </row>
     <row r="51" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>93</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
@@ -2378,7 +2359,7 @@
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2386,14 +2367,14 @@
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>93</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
@@ -2406,48 +2387,50 @@
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="13"/>
+      <c r="D53" s="11">
+        <v>3</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
+      <c r="G53" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
+      <c r="L53" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="M53" s="4"/>
       <c r="N53"/>
       <c r="O53"/>
-      <c r="P53"/>
+      <c r="P53" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="54" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
-      <c r="B54" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="11"/>
       <c r="E54" s="13"/>
-      <c r="F54" s="13" t="s">
-        <v>118</v>
-      </c>
+      <c r="F54" s="13"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="J54" s="4"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54"/>
       <c r="O54"/>
@@ -2457,103 +2440,93 @@
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="11">
-        <v>1</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>93</v>
-      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="13"/>
       <c r="F55" s="13"/>
-      <c r="G55" s="13" t="s">
-        <v>119</v>
-      </c>
+      <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55"/>
       <c r="O55"/>
-      <c r="P55" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="11">
-        <v>2</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M56" s="4"/>
-      <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56" t="s">
-        <v>122</v>
-      </c>
+      <c r="P55"/>
+    </row>
+    <row r="56" spans="1:16" s="18" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="13"/>
+      <c r="B56" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
     </row>
     <row r="57" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="C57" s="4"/>
-      <c r="D57" s="11">
-        <v>3</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13" t="s">
-        <v>147</v>
-      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57"/>
       <c r="O57"/>
-      <c r="P57" t="s">
-        <v>148</v>
-      </c>
+      <c r="P57"/>
     </row>
     <row r="58" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="13"/>
+      <c r="D58" s="11">
+        <v>1</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
+      <c r="G58" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
+      <c r="L58" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="M58" s="4"/>
       <c r="N58"/>
       <c r="O58"/>
-      <c r="P58"/>
+      <c r="P58" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="59" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
@@ -2576,10 +2549,10 @@
     <row r="60" spans="1:16" s="18" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
@@ -2598,13 +2571,13 @@
     <row r="61" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="11"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
@@ -2612,14 +2585,14 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
     </row>
-    <row r="62" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="13.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2631,23 +2604,23 @@
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="13.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2665,211 +2638,207 @@
       <c r="O63"/>
       <c r="P63"/>
     </row>
-    <row r="64" spans="1:16" s="18" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
-      <c r="B64" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-    </row>
-    <row r="65" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="13.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+    </row>
+    <row r="65" spans="1:16" ht="13.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
-      <c r="B65" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="M65" s="4"/>
-      <c r="N65"/>
-      <c r="O65"/>
-      <c r="P65"/>
+      <c r="B65" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
     </row>
     <row r="66" spans="1:16" ht="13.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="C66" s="4"/>
-      <c r="D66" s="11">
-        <v>1</v>
-      </c>
+      <c r="D66" s="11"/>
       <c r="E66" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F66" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="G66" s="13" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
-      <c r="J66" s="4"/>
+      <c r="J66" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="M66" s="4"/>
       <c r="N66"/>
       <c r="O66"/>
-      <c r="P66" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="13.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="P66"/>
+    </row>
+    <row r="67" spans="1:16" ht="13.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="C67" s="4"/>
       <c r="D67" s="11"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
+      <c r="E67" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
-      <c r="J67" s="4"/>
+      <c r="J67" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
+      <c r="L67" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="M67" s="4"/>
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67"/>
     </row>
-    <row r="68" spans="1:16" ht="13.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="13.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
+      <c r="B68" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="C68" s="4"/>
       <c r="D68" s="11"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
+      <c r="E68" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
-      <c r="J68" s="4"/>
+      <c r="J68" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
+      <c r="L68" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="M68" s="4"/>
       <c r="N68"/>
       <c r="O68"/>
       <c r="P68"/>
     </row>
-    <row r="69" spans="1:16" ht="13.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="13.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
-      <c r="B69" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
-    </row>
-    <row r="70" spans="1:16" ht="13.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+    </row>
+    <row r="70" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
-      <c r="B70" s="4" t="s">
-        <v>158</v>
-      </c>
+      <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="11"/>
-      <c r="E70" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>149</v>
-      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
-      <c r="J70" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="J70" s="4"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70"/>
     </row>
-    <row r="71" spans="1:16" ht="13.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M71" s="4"/>
-      <c r="N71"/>
-      <c r="O71"/>
-      <c r="P71"/>
-    </row>
-    <row r="72" spans="1:16" ht="13.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="13"/>
+      <c r="B71" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="11"/>
-      <c r="E72" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>163</v>
+      <c r="E72" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
@@ -2878,20 +2847,20 @@
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72"/>
     </row>
-    <row r="73" spans="1:16" ht="13.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="11"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="21"/>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
@@ -2903,72 +2872,67 @@
       <c r="O73"/>
       <c r="P73"/>
     </row>
-    <row r="74" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
+      <c r="B74" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="C74" s="4"/>
       <c r="D74" s="11"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
+      <c r="E74" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L74" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="N74"/>
       <c r="O74"/>
       <c r="P74"/>
     </row>
-    <row r="75" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="13"/>
-      <c r="B75" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="14"/>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="11"/>
+      <c r="E75"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="11"/>
-      <c r="E76" s="20" t="s">
+      <c r="E76" t="s">
         <v>66</v>
       </c>
-      <c r="F76" s="21" t="s">
-        <v>67</v>
+      <c r="F76" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M76" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
@@ -2978,15 +2942,9 @@
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="11"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
+      <c r="E77"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77"/>
@@ -2994,27 +2952,29 @@
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="11"/>
       <c r="E78" t="s">
-        <v>66</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="F78" t="s">
+        <v>74</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="L78" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" t="s">
+        <v>68</v>
+      </c>
+      <c r="K78"/>
+      <c r="L78" t="s">
         <v>71</v>
       </c>
+      <c r="M78" s="4"/>
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78"/>
@@ -3025,8 +2985,14 @@
       <c r="C79" s="4"/>
       <c r="D79" s="11"/>
       <c r="E79"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79" s="4"/>
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79"/>
@@ -3034,24 +3000,29 @@
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="11"/>
       <c r="E80" t="s">
-        <v>66</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="F80" t="s">
+        <v>75</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="16" t="s">
-        <v>70</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" t="s">
+        <v>68</v>
+      </c>
+      <c r="K80"/>
+      <c r="L80" t="s">
+        <v>71</v>
+      </c>
+      <c r="M80" s="4"/>
       <c r="N80"/>
       <c r="O80"/>
       <c r="P80"/>
@@ -3062,8 +3033,14 @@
       <c r="C81" s="4"/>
       <c r="D81" s="11"/>
       <c r="E81"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81" s="4"/>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81"/>
@@ -3071,7 +3048,7 @@
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="11"/>
@@ -3079,10 +3056,10 @@
         <v>73</v>
       </c>
       <c r="F82" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
@@ -3119,7 +3096,7 @@
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="11"/>
@@ -3127,10 +3104,10 @@
         <v>73</v>
       </c>
       <c r="F84" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
@@ -3167,31 +3144,35 @@
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="11"/>
       <c r="E86" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F86" t="s">
-        <v>76</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>149</v>
+        <v>80</v>
+      </c>
+      <c r="G86" t="s">
+        <v>142</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
       <c r="J86" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K86"/>
       <c r="L86" t="s">
         <v>71</v>
       </c>
       <c r="M86" s="4"/>
-      <c r="N86"/>
-      <c r="O86"/>
+      <c r="N86" t="s">
+        <v>144</v>
+      </c>
+      <c r="O86" t="s">
+        <v>145</v>
+      </c>
       <c r="P86"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -3215,31 +3196,35 @@
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="11"/>
       <c r="E88" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F88" t="s">
-        <v>78</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>149</v>
+        <v>81</v>
+      </c>
+      <c r="G88" t="s">
+        <v>142</v>
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
       <c r="J88" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K88"/>
       <c r="L88" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="M88" s="4"/>
-      <c r="N88"/>
-      <c r="O88"/>
+      <c r="N88" t="s">
+        <v>144</v>
+      </c>
+      <c r="O88" t="s">
+        <v>145</v>
+      </c>
       <c r="P88"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -3260,39 +3245,36 @@
       <c r="O89"/>
       <c r="P89"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="11"/>
       <c r="E90" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F90" t="s">
-        <v>80</v>
-      </c>
-      <c r="G90" t="s">
-        <v>150</v>
+        <v>83</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
       <c r="J90" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="K90"/>
       <c r="L90" t="s">
-        <v>71</v>
-      </c>
-      <c r="M90" s="4"/>
-      <c r="N90" t="s">
-        <v>152</v>
-      </c>
-      <c r="O90" t="s">
-        <v>153</v>
-      </c>
-      <c r="P90"/>
+        <v>77</v>
+      </c>
+      <c r="M90"/>
+      <c r="O90"/>
+      <c r="P90" s="23" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
@@ -3307,58 +3289,55 @@
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91"/>
-      <c r="M91" s="4"/>
-      <c r="N91"/>
+      <c r="M91"/>
       <c r="O91"/>
-      <c r="P91"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P91" s="23"/>
+    </row>
+    <row r="92" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="11"/>
-      <c r="E92" t="s">
-        <v>79</v>
-      </c>
-      <c r="F92" t="s">
-        <v>81</v>
+      <c r="E92" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="G92" t="s">
-        <v>150</v>
-      </c>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" t="s">
-        <v>70</v>
-      </c>
-      <c r="K92"/>
-      <c r="L92" t="s">
+        <v>143</v>
+      </c>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4" t="s">
         <v>77</v>
       </c>
       <c r="M92" s="4"/>
-      <c r="N92" t="s">
-        <v>152</v>
-      </c>
-      <c r="O92" t="s">
-        <v>153</v>
-      </c>
-      <c r="P92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="11"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
-      <c r="J93"/>
-      <c r="K93"/>
-      <c r="L93"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93"/>
       <c r="O93"/>
@@ -3367,18 +3346,18 @@
     <row r="94" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="11"/>
       <c r="E94" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="F94" t="s">
-        <v>83</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="G94" t="s">
+        <v>143</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
@@ -3392,7 +3371,7 @@
       <c r="M94"/>
       <c r="O94"/>
       <c r="P94" s="23" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
@@ -3412,36 +3391,35 @@
       <c r="O95"/>
       <c r="P95" s="23"/>
     </row>
-    <row r="96" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="11"/>
-      <c r="E96" s="13" t="s">
+      <c r="E96" t="s">
         <v>82</v>
       </c>
-      <c r="F96" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G96" t="s">
-        <v>151</v>
-      </c>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="4" t="s">
+      <c r="F96" t="s">
+        <v>91</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
+      <c r="J96" t="s">
         <v>84</v>
       </c>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M96" s="4"/>
-      <c r="N96"/>
+      <c r="K96"/>
+      <c r="L96" t="s">
+        <v>71</v>
+      </c>
+      <c r="M96"/>
       <c r="O96"/>
-      <c r="P96" s="23" t="s">
-        <v>86</v>
+      <c r="P96" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -3449,241 +3427,249 @@
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="11"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
       <c r="O97"/>
-      <c r="P97"/>
-    </row>
-    <row r="98" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P97" s="23"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C98" s="4"/>
-      <c r="D98" s="11"/>
-      <c r="E98" t="s">
-        <v>82</v>
-      </c>
+      <c r="D98"/>
+      <c r="E98"/>
       <c r="F98" t="s">
-        <v>130</v>
-      </c>
-      <c r="G98" t="s">
-        <v>151</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G98"/>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
       <c r="J98" t="s">
         <v>84</v>
       </c>
       <c r="K98"/>
-      <c r="L98" t="s">
-        <v>77</v>
-      </c>
+      <c r="L98"/>
       <c r="M98"/>
       <c r="O98"/>
-      <c r="P98" s="23" t="s">
-        <v>131</v>
+      <c r="P98" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
-      <c r="D99" s="11"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>82</v>
+      </c>
+      <c r="F99" t="s">
+        <v>89</v>
+      </c>
+      <c r="G99" t="s">
+        <v>143</v>
+      </c>
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
       <c r="J99"/>
       <c r="K99"/>
-      <c r="L99"/>
+      <c r="L99" t="s">
+        <v>71</v>
+      </c>
       <c r="M99"/>
+      <c r="N99"/>
       <c r="O99"/>
-      <c r="P99" s="23"/>
+      <c r="P99"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
-      <c r="B100" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B100" s="4"/>
       <c r="C100" s="4"/>
-      <c r="D100" s="11"/>
+      <c r="D100">
+        <v>2</v>
+      </c>
       <c r="E100" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="F100" t="s">
-        <v>91</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="G100" t="s">
+        <v>143</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
-      <c r="J100" t="s">
-        <v>84</v>
-      </c>
+      <c r="J100"/>
       <c r="K100"/>
       <c r="L100" t="s">
         <v>71</v>
       </c>
       <c r="M100"/>
+      <c r="N100"/>
       <c r="O100"/>
-      <c r="P100" t="s">
-        <v>92</v>
-      </c>
+      <c r="P100"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="11"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="22"/>
-      <c r="J101"/>
-      <c r="K101"/>
-      <c r="L101"/>
-      <c r="M101"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101"/>
       <c r="O101"/>
-      <c r="P101" s="23"/>
+      <c r="P101"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C102" s="4"/>
-      <c r="D102"/>
-      <c r="E102"/>
+      <c r="D102" s="11"/>
+      <c r="E102" t="s">
+        <v>93</v>
+      </c>
       <c r="F102" t="s">
-        <v>87</v>
-      </c>
-      <c r="G102"/>
+        <v>94</v>
+      </c>
+      <c r="G102" t="s">
+        <v>143</v>
+      </c>
       <c r="H102" s="22"/>
       <c r="I102" s="22"/>
       <c r="J102" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="K102"/>
-      <c r="L102"/>
-      <c r="M102"/>
+      <c r="L102" t="s">
+        <v>71</v>
+      </c>
+      <c r="M102" s="4"/>
+      <c r="N102"/>
       <c r="O102"/>
-      <c r="P102" t="s">
-        <v>88</v>
-      </c>
+      <c r="P102"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103" t="s">
-        <v>82</v>
-      </c>
-      <c r="F103" t="s">
-        <v>89</v>
-      </c>
-      <c r="G103" t="s">
-        <v>151</v>
-      </c>
+      <c r="D103" s="11"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
       <c r="H103" s="22"/>
       <c r="I103" s="22"/>
       <c r="J103"/>
       <c r="K103"/>
-      <c r="L103" t="s">
-        <v>71</v>
-      </c>
-      <c r="M103"/>
+      <c r="L103"/>
+      <c r="M103" s="4"/>
       <c r="N103"/>
       <c r="O103"/>
       <c r="P103"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104">
-        <v>2</v>
-      </c>
-      <c r="E104" t="s">
-        <v>82</v>
-      </c>
+      <c r="B104" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104" t="s">
+        <v>95</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104"/>
       <c r="F104" t="s">
-        <v>90</v>
-      </c>
-      <c r="G104" t="s">
-        <v>151</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G104"/>
       <c r="H104" s="22"/>
       <c r="I104" s="22"/>
-      <c r="J104"/>
+      <c r="J104" t="s">
+        <v>84</v>
+      </c>
       <c r="K104"/>
-      <c r="L104" t="s">
-        <v>71</v>
-      </c>
+      <c r="L104"/>
       <c r="M104"/>
-      <c r="N104"/>
       <c r="O104"/>
-      <c r="P104"/>
+      <c r="P104" s="23" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105"/>
+      <c r="C105"/>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>98</v>
+      </c>
+      <c r="F105" t="s">
+        <v>99</v>
+      </c>
+      <c r="G105" t="s">
+        <v>142</v>
+      </c>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="J105" t="s">
+        <v>70</v>
+      </c>
+      <c r="K105"/>
+      <c r="L105" t="s">
+        <v>71</v>
+      </c>
+      <c r="M105"/>
+      <c r="N105" s="23"/>
       <c r="O105"/>
       <c r="P105"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
-      <c r="B106" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="11"/>
-      <c r="E106" t="s">
-        <v>93</v>
+      <c r="B106" s="4"/>
+      <c r="C106"/>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="F106" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G106" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H106" s="22"/>
       <c r="I106" s="22"/>
       <c r="J106" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K106"/>
       <c r="L106" t="s">
         <v>71</v>
       </c>
-      <c r="M106" s="4"/>
-      <c r="N106"/>
+      <c r="M106"/>
+      <c r="N106" s="23"/>
       <c r="O106"/>
       <c r="P106"/>
     </row>
@@ -3692,105 +3678,98 @@
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="11"/>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107" s="22"/>
-      <c r="I107" s="22"/>
-      <c r="J107"/>
-      <c r="K107"/>
-      <c r="L107"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107"/>
       <c r="O107"/>
       <c r="P107"/>
     </row>
-    <row r="108" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C108" t="s">
-        <v>95</v>
-      </c>
-      <c r="D108"/>
-      <c r="E108"/>
+        <v>64</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="F108" t="s">
-        <v>96</v>
-      </c>
-      <c r="G108"/>
+        <v>101</v>
+      </c>
+      <c r="G108" t="s">
+        <v>143</v>
+      </c>
       <c r="H108" s="22"/>
       <c r="I108" s="22"/>
       <c r="J108" t="s">
         <v>84</v>
       </c>
       <c r="K108"/>
-      <c r="L108"/>
+      <c r="L108" t="s">
+        <v>71</v>
+      </c>
       <c r="M108"/>
       <c r="O108"/>
-      <c r="P108" s="23" t="s">
-        <v>97</v>
+      <c r="P108" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109"/>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109" t="s">
-        <v>98</v>
-      </c>
-      <c r="F109" t="s">
-        <v>99</v>
-      </c>
-      <c r="G109" t="s">
-        <v>150</v>
-      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="13"/>
+      <c r="F109"/>
+      <c r="G109"/>
       <c r="H109" s="22"/>
       <c r="I109" s="22"/>
-      <c r="J109" t="s">
-        <v>70</v>
-      </c>
+      <c r="J109"/>
       <c r="K109"/>
-      <c r="L109" t="s">
-        <v>71</v>
-      </c>
+      <c r="L109"/>
       <c r="M109"/>
-      <c r="N109" s="23"/>
       <c r="O109"/>
       <c r="P109"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110"/>
-      <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110" s="20" t="s">
-        <v>79</v>
+      <c r="B110" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="F110" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G110" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H110" s="22"/>
       <c r="I110" s="22"/>
       <c r="J110" t="s">
-        <v>70</v>
-      </c>
-      <c r="K110"/>
-      <c r="L110" t="s">
-        <v>71</v>
-      </c>
-      <c r="M110"/>
-      <c r="N110" s="23"/>
+        <v>68</v>
+      </c>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M110" s="4"/>
+      <c r="N110"/>
       <c r="O110"/>
-      <c r="P110"/>
+      <c r="P110" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
@@ -3812,83 +3791,81 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
-      <c r="B112" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="11"/>
-      <c r="E112" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F112" t="s">
-        <v>101</v>
-      </c>
-      <c r="G112" t="s">
-        <v>151</v>
-      </c>
-      <c r="H112" s="22"/>
-      <c r="I112" s="22"/>
-      <c r="J112" t="s">
-        <v>84</v>
-      </c>
-      <c r="K112"/>
-      <c r="L112" t="s">
-        <v>71</v>
-      </c>
-      <c r="M112"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112"/>
       <c r="O112"/>
-      <c r="P112" t="s">
-        <v>102</v>
-      </c>
+      <c r="P112"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+      <c r="B113" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="C113" s="4"/>
       <c r="D113" s="11"/>
-      <c r="E113" s="13"/>
-      <c r="F113"/>
-      <c r="G113"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
-      <c r="J113"/>
-      <c r="K113"/>
-      <c r="L113"/>
-      <c r="M113"/>
+      <c r="E113" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M113" s="4"/>
+      <c r="N113"/>
       <c r="O113"/>
       <c r="P113"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="11"/>
       <c r="E114" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F114" t="s">
-        <v>103</v>
-      </c>
-      <c r="G114" t="s">
-        <v>154</v>
-      </c>
-      <c r="H114" s="22"/>
-      <c r="I114" s="22"/>
-      <c r="J114" t="s">
-        <v>68</v>
+        <v>160</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="K114" s="4"/>
       <c r="L114" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M114" s="4"/>
       <c r="N114"/>
       <c r="O114"/>
-      <c r="P114" t="s">
-        <v>155</v>
-      </c>
+      <c r="P114"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
@@ -3926,124 +3903,150 @@
       <c r="O116"/>
       <c r="P116"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117"/>
-      <c r="O117"/>
-      <c r="P117"/>
+    <row r="117" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="13"/>
+      <c r="B117" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="14"/>
+      <c r="L117" s="14"/>
+      <c r="M117" s="14"/>
+      <c r="N117" s="14"/>
+      <c r="O117" s="14"/>
+      <c r="P117" s="14"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
+      <c r="B118" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118" t="s">
+        <v>95</v>
+      </c>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118" t="s">
+        <v>130</v>
+      </c>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118" t="s">
+        <v>70</v>
+      </c>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
       <c r="N118"/>
-      <c r="O118"/>
-      <c r="P118"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
-      <c r="N119"/>
-      <c r="O119"/>
-      <c r="P119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>66</v>
+      </c>
+      <c r="F119" t="s">
+        <v>131</v>
+      </c>
+      <c r="G119" t="s">
+        <v>135</v>
+      </c>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119" t="s">
+        <v>70</v>
+      </c>
+      <c r="K119"/>
+      <c r="L119" t="s">
+        <v>77</v>
+      </c>
+      <c r="M119"/>
+      <c r="N119" s="23"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>66</v>
+      </c>
+      <c r="F120" t="s">
+        <v>132</v>
+      </c>
+      <c r="G120" t="s">
+        <v>148</v>
+      </c>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120" t="s">
+        <v>70</v>
+      </c>
+      <c r="K120"/>
+      <c r="L120" t="s">
+        <v>77</v>
+      </c>
+      <c r="M120"/>
       <c r="N120"/>
-      <c r="O120"/>
-      <c r="P120"/>
-    </row>
-    <row r="121" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="13"/>
-      <c r="B121" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="14"/>
-      <c r="K121" s="14"/>
-      <c r="L121" s="14"/>
-      <c r="M121" s="14"/>
-      <c r="N121" s="14"/>
-      <c r="O121" s="14"/>
-      <c r="P121" s="14"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C122" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="D122"/>
       <c r="E122"/>
       <c r="F122" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
       <c r="I122"/>
       <c r="J122" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K122"/>
-      <c r="L122"/>
+      <c r="L122" t="s">
+        <v>77</v>
+      </c>
       <c r="M122"/>
       <c r="N122"/>
-      <c r="O122" s="4"/>
-      <c r="P122" s="4"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B123"/>
@@ -4052,56 +4055,38 @@
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>66</v>
-      </c>
-      <c r="F123" t="s">
-        <v>137</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F123"/>
       <c r="G123" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K123"/>
       <c r="L123" t="s">
         <v>77</v>
       </c>
       <c r="M123"/>
-      <c r="N123" s="23"/>
-      <c r="O123" s="4"/>
-      <c r="P123" s="4"/>
+      <c r="N123"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B124"/>
       <c r="C124"/>
-      <c r="D124">
-        <v>2</v>
-      </c>
-      <c r="E124" t="s">
-        <v>66</v>
-      </c>
-      <c r="F124" t="s">
-        <v>138</v>
-      </c>
-      <c r="G124" t="s">
-        <v>156</v>
-      </c>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
       <c r="H124"/>
       <c r="I124"/>
-      <c r="J124" t="s">
-        <v>70</v>
-      </c>
+      <c r="J124"/>
       <c r="K124"/>
-      <c r="L124" t="s">
-        <v>77</v>
-      </c>
+      <c r="L124"/>
       <c r="M124"/>
       <c r="N124"/>
-      <c r="O124" s="4"/>
-      <c r="P124" s="4"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B125"/>
@@ -4119,52 +4104,32 @@
       <c r="N125"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B126" t="s">
-        <v>41</v>
-      </c>
-      <c r="C126" t="s">
-        <v>139</v>
-      </c>
+      <c r="B126"/>
+      <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
-      <c r="F126" t="s">
-        <v>140</v>
-      </c>
+      <c r="F126"/>
       <c r="G126"/>
       <c r="H126"/>
       <c r="I126"/>
-      <c r="J126" t="s">
-        <v>68</v>
-      </c>
+      <c r="J126"/>
       <c r="K126"/>
-      <c r="L126" t="s">
-        <v>77</v>
-      </c>
+      <c r="L126"/>
       <c r="M126"/>
       <c r="N126"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B127"/>
       <c r="C127"/>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127" t="s">
-        <v>93</v>
-      </c>
+      <c r="D127"/>
+      <c r="E127"/>
       <c r="F127"/>
-      <c r="G127" t="s">
-        <v>142</v>
-      </c>
+      <c r="G127"/>
       <c r="H127"/>
       <c r="I127"/>
-      <c r="J127" t="s">
-        <v>68</v>
-      </c>
+      <c r="J127"/>
       <c r="K127"/>
-      <c r="L127" t="s">
-        <v>77</v>
-      </c>
+      <c r="L127"/>
       <c r="M127"/>
       <c r="N127"/>
     </row>
@@ -4244,64 +4209,16 @@
       <c r="N132"/>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B133"/>
-      <c r="C133"/>
-      <c r="D133"/>
-      <c r="E133"/>
-      <c r="F133"/>
-      <c r="G133"/>
-      <c r="H133"/>
-      <c r="I133"/>
-      <c r="J133"/>
-      <c r="K133"/>
-      <c r="L133"/>
-      <c r="M133"/>
-      <c r="N133"/>
+      <c r="C133" s="4"/>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B134"/>
-      <c r="C134"/>
-      <c r="D134"/>
-      <c r="E134"/>
-      <c r="F134"/>
-      <c r="G134"/>
-      <c r="H134"/>
-      <c r="I134"/>
-      <c r="J134"/>
-      <c r="K134"/>
-      <c r="L134"/>
-      <c r="M134"/>
-      <c r="N134"/>
+      <c r="C134" s="4"/>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B135"/>
-      <c r="C135"/>
-      <c r="D135"/>
-      <c r="E135"/>
-      <c r="F135"/>
-      <c r="G135"/>
-      <c r="H135"/>
-      <c r="I135"/>
-      <c r="J135"/>
-      <c r="K135"/>
-      <c r="L135"/>
-      <c r="M135"/>
-      <c r="N135"/>
+      <c r="C135" s="4"/>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B136"/>
-      <c r="C136"/>
-      <c r="D136"/>
-      <c r="E136"/>
-      <c r="F136"/>
-      <c r="G136"/>
-      <c r="H136"/>
-      <c r="I136"/>
-      <c r="J136"/>
-      <c r="K136"/>
-      <c r="L136"/>
-      <c r="M136"/>
-      <c r="N136"/>
+      <c r="C136" s="4"/>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C137" s="4"/>
@@ -6795,18 +6712,6 @@
     </row>
     <row r="967" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C967" s="4"/>
-    </row>
-    <row r="968" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C968" s="4"/>
-    </row>
-    <row r="969" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C969" s="4"/>
-    </row>
-    <row r="970" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C970" s="4"/>
-    </row>
-    <row r="971" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C971" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
@@ -6815,20 +6720,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:M13 M15:M16 M18:M19 M39:M40 M42:M59 M61:M63 M65:M74 M76:M120 M21:M37" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:M13 M15:M16 M18:M19 M37:M38 M57:M59 M61:M70 M72:M116 M21:M35 M40:M55" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"rx,tx"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Object Code value" error="The Object code value shall be:_x000a_VARIABLE_x000a_RECORD_x000a_ARRAY" sqref="C12:C13 C15:C16 C18:C19 C42:C59 C61:C63 C65:C74 C39:C40 C76:C120 C21:C37" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Object Code value" error="The Object code value shall be:_x000a_VARIABLE_x000a_RECORD_x000a_ARRAY" sqref="C12:C13 C15:C16 C18:C19 C57:C59 C61:C70 C37:C38 C72:C116 C21:C35 C40:C55" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"VARIABLE,ARRAY,RECORD"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="C11 C14 C17 C20 C38 C41 C60 C64 C75 C121 D122:D136" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Category" error="The value for the entry category shall be _x000a_M : (mandatory)_x000a_O : (optional) _x000a_C : (conditional)" sqref="J12:J13 J15:J16 J18:J19 J42:J59 J61:J63 J65:J74 J39:J40 J76:J120 J21:J37" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="C11 C14 C17 C20 C36 C39 C56 C60 C71 C117 D118:D132" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Category" error="The value for the entry category shall be _x000a_M : (mandatory)_x000a_O : (optional) _x000a_C : (conditional)" sqref="J12:J13 J15:J16 J18:J19 J57:J59 J61:J70 J37:J38 J72:J116 J21:J35 J40:J55" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"M,O,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Backup/Setting Flag" error="The entry flag shall be_x000a_B : (Backup)_x000a_S : (Setting)" sqref="K12:K13 K15:K16 K18:K19 K42:K59 K61:K63 K65:K74 K39:K40 K76:K120 K21:K37" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Backup/Setting Flag" error="The entry flag shall be_x000a_B : (Backup)_x000a_S : (Setting)" sqref="K12:K13 K15:K16 K18:K19 K57:K59 K61:K70 K37:K38 K72:K116 K21:K35 K40:K55" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"B,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C137:C971" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C133:C967" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"VARIABLE,ARRAY,RECORD"</formula1>
     </dataValidation>
   </dataValidations>
